--- a/Availabe_Pokemon.xlsx
+++ b/Availabe_Pokemon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\OneDrive\Desktop\MonoGen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2CC771C5-67FB-43A7-BB3B-5BE3CC609688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{981B17AD-803D-47AB-9626-BEC4679E7B63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1650" windowWidth="21600" windowHeight="11295" xr2:uid="{DF7607B8-A0D5-4AA5-BDDA-E9F41699AFA3}"/>
   </bookViews>
@@ -3998,7 +3998,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>247</v>
       </c>
@@ -4008,7 +4008,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>249</v>
       </c>
@@ -4198,7 +4198,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
         <v>282</v>
       </c>
@@ -4208,7 +4208,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
         <v>284</v>
       </c>
@@ -4688,7 +4688,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
         <v>339</v>
       </c>
@@ -4698,7 +4698,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
         <v>341</v>
       </c>
@@ -4783,7 +4783,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
         <v>356</v>
       </c>
@@ -4793,7 +4793,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="s">
         <v>358</v>
       </c>
@@ -4808,7 +4808,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A412" s="1" t="s">
         <v>361</v>
       </c>
@@ -4868,7 +4868,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A424" s="1" t="s">
         <v>370</v>
       </c>
@@ -4938,12 +4938,12 @@
         <v>375</v>
       </c>
     </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A438" s="1" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A439" s="1" t="s">
         <v>377</v>
       </c>
@@ -4988,7 +4988,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A448" s="1" t="s">
         <v>386</v>
       </c>
@@ -5033,7 +5033,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="457" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A457" s="1" t="s">
         <v>393</v>
       </c>
@@ -5088,7 +5088,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="468" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A468" s="1" t="s">
         <v>400</v>
       </c>
@@ -5168,7 +5168,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="484" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A484" s="1" t="s">
         <v>416</v>
       </c>
@@ -5553,7 +5553,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="561" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A561" s="1" t="s">
         <v>472</v>
       </c>
@@ -5588,7 +5588,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="568" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A568" s="1" t="s">
         <v>479</v>
       </c>
@@ -5598,7 +5598,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="570" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A570" s="1" t="s">
         <v>480</v>
       </c>
@@ -5618,12 +5618,12 @@
         <v>482</v>
       </c>
     </row>
-    <row r="574" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A574" s="1" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="575" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A575" s="1" t="s">
         <v>484</v>
       </c>
@@ -5763,7 +5763,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="603" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A603" s="1" t="s">
         <v>509</v>
       </c>
@@ -5778,7 +5778,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="606" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A606" s="1" t="s">
         <v>511</v>
       </c>
@@ -5788,22 +5788,22 @@
         <v>512</v>
       </c>
     </row>
-    <row r="608" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A608" s="1" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="609" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A609" s="1" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="610" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A610" s="1" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="611" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A611" s="1" t="s">
         <v>514</v>
       </c>
@@ -5813,12 +5813,12 @@
         <v>516</v>
       </c>
     </row>
-    <row r="613" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A613" s="1" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="614" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A614" s="1" t="s">
         <v>518</v>
       </c>
@@ -5828,32 +5828,32 @@
         <v>519</v>
       </c>
     </row>
-    <row r="616" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A616" s="1" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="617" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A617" s="1" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="618" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A618" s="1" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="619" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A619" s="1" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="620" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A620" s="1" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="621" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A621" s="1" t="s">
         <v>525</v>
       </c>
@@ -5903,7 +5903,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="631" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A631" s="1" t="s">
         <v>535</v>
       </c>
@@ -6013,17 +6013,17 @@
         <v>552</v>
       </c>
     </row>
-    <row r="653" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A653" s="1" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="654" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A654" s="1" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="655" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A655" s="1" t="s">
         <v>555</v>
       </c>
@@ -6033,7 +6033,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="657" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A657" s="1" t="s">
         <v>556</v>
       </c>
@@ -6043,7 +6043,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="659" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A659" s="1" t="s">
         <v>557</v>
       </c>
@@ -6128,7 +6128,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="676" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A676" s="1" t="s">
         <v>570</v>
       </c>
@@ -6143,7 +6143,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="679" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A679" s="1" t="s">
         <v>573</v>
       </c>
@@ -6158,7 +6158,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="682" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A682" s="1" t="s">
         <v>576</v>
       </c>
@@ -6533,7 +6533,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="757" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A757" s="1" t="s">
         <v>582</v>
       </c>
@@ -6583,7 +6583,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="767" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A767" s="1" t="s">
         <v>585</v>
       </c>
@@ -6693,12 +6693,12 @@
         <v>542</v>
       </c>
     </row>
-    <row r="789" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A789" s="1" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="790" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A790" s="1" t="s">
         <v>590</v>
       </c>
@@ -6863,12 +6863,12 @@
         <v>128</v>
       </c>
     </row>
-    <row r="823" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A823" s="1" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="824" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A824" s="1" t="s">
         <v>595</v>
       </c>
@@ -6943,17 +6943,17 @@
         <v>141</v>
       </c>
     </row>
-    <row r="839" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A839" s="1" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="840" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A840" s="1" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="841" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A841" s="1" t="s">
         <v>598</v>
       </c>
@@ -6963,7 +6963,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="843" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A843" s="1" t="s">
         <v>282</v>
       </c>
@@ -6973,7 +6973,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="845" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A845" s="1" t="s">
         <v>284</v>
       </c>
@@ -7088,42 +7088,42 @@
         <v>158</v>
       </c>
     </row>
-    <row r="868" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A868" s="1" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="869" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A869" s="1" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="870" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A870" s="1" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="871" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A871" s="1" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="872" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A872" s="1" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="873" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A873" s="1" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="874" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A874" s="1" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="875" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A875" s="1" t="s">
         <v>525</v>
       </c>
@@ -7163,7 +7163,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="883" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A883" s="1" t="s">
         <v>601</v>
       </c>
@@ -7238,7 +7238,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="898" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A898" s="1" t="s">
         <v>603</v>
       </c>
@@ -7253,12 +7253,12 @@
         <v>143</v>
       </c>
     </row>
-    <row r="901" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A901" s="1" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="902" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A902" s="1" t="s">
         <v>605</v>
       </c>
@@ -7268,7 +7268,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="904" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A904" s="1" t="s">
         <v>606</v>
       </c>
@@ -7288,7 +7288,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="908" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A908" s="1" t="s">
         <v>607</v>
       </c>
